--- a/Excel-XLSX/UN-HUN.xlsx
+++ b/Excel-XLSX/UN-HUN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="1691">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>IYLd2m</t>
+    <t>cY5b6K</t>
   </si>
   <si>
     <t>1989</t>
@@ -5058,10 +5058,16 @@
     <t>1348</t>
   </si>
   <si>
+    <t>4500</t>
+  </si>
+  <si>
     <t>1349</t>
   </si>
   <si>
-    <t>62625</t>
+    <t>62987</t>
+  </si>
+  <si>
+    <t>6000</t>
   </si>
   <si>
     <t>1350</t>
@@ -5073,7 +5079,16 @@
     <t>1352</t>
   </si>
   <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
     <t>1353</t>
+  </si>
+  <si>
+    <t>1354</t>
   </si>
 </sst>
 </file>
@@ -5458,7 +5473,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1354"/>
+  <dimension ref="A1:V1355"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -93975,7 +93990,7 @@
         <v>31</v>
       </c>
       <c r="N1302" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O1302" s="2" t="s">
         <v>33</v>
@@ -94111,7 +94126,7 @@
         <v>31</v>
       </c>
       <c r="N1304" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O1304" s="2" t="s">
         <v>33</v>
@@ -94383,7 +94398,7 @@
         <v>31</v>
       </c>
       <c r="N1308" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O1308" s="2" t="s">
         <v>33</v>
@@ -94451,7 +94466,7 @@
         <v>31</v>
       </c>
       <c r="N1309" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O1309" s="2" t="s">
         <v>33</v>
@@ -94519,7 +94534,7 @@
         <v>31</v>
       </c>
       <c r="N1310" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O1310" s="2" t="s">
         <v>33</v>
@@ -94655,7 +94670,7 @@
         <v>31</v>
       </c>
       <c r="N1312" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O1312" s="2" t="s">
         <v>33</v>
@@ -94723,7 +94738,7 @@
         <v>31</v>
       </c>
       <c r="N1313" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O1313" s="2" t="s">
         <v>33</v>
@@ -95471,7 +95486,7 @@
         <v>31</v>
       </c>
       <c r="N1324" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O1324" s="2" t="s">
         <v>33</v>
@@ -95539,7 +95554,7 @@
         <v>31</v>
       </c>
       <c r="N1325" s="2" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="O1325" s="2" t="s">
         <v>33</v>
@@ -95607,7 +95622,7 @@
         <v>31</v>
       </c>
       <c r="N1326" s="2" t="s">
-        <v>852</v>
+        <v>350</v>
       </c>
       <c r="O1326" s="2" t="s">
         <v>33</v>
@@ -95675,7 +95690,7 @@
         <v>31</v>
       </c>
       <c r="N1327" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="O1327" s="2" t="s">
         <v>33</v>
@@ -95743,7 +95758,7 @@
         <v>31</v>
       </c>
       <c r="N1328" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O1328" s="2" t="s">
         <v>33</v>
@@ -95811,7 +95826,7 @@
         <v>31</v>
       </c>
       <c r="N1329" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O1329" s="2" t="s">
         <v>33</v>
@@ -96015,7 +96030,7 @@
         <v>31</v>
       </c>
       <c r="N1332" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="O1332" s="2" t="s">
         <v>33</v>
@@ -96287,7 +96302,7 @@
         <v>31</v>
       </c>
       <c r="N1336" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O1336" s="2" t="s">
         <v>33</v>
@@ -96423,7 +96438,7 @@
         <v>31</v>
       </c>
       <c r="N1338" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="O1338" s="2" t="s">
         <v>33</v>
@@ -96491,7 +96506,7 @@
         <v>31</v>
       </c>
       <c r="N1339" s="2" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="O1339" s="2" t="s">
         <v>33</v>
@@ -96627,7 +96642,7 @@
         <v>31</v>
       </c>
       <c r="N1341" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O1341" s="2" t="s">
         <v>33</v>
@@ -96695,7 +96710,7 @@
         <v>31</v>
       </c>
       <c r="N1342" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O1342" s="2" t="s">
         <v>33</v>
@@ -96781,7 +96796,7 @@
         <v>290</v>
       </c>
       <c r="T1343" s="2" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="U1343" s="1" t="s">
         <v>34</v>
@@ -96899,7 +96914,7 @@
         <v>31</v>
       </c>
       <c r="N1345" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="O1345" s="2" t="s">
         <v>33</v>
@@ -97035,7 +97050,7 @@
         <v>31</v>
       </c>
       <c r="N1347" s="2" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="O1347" s="2" t="s">
         <v>33</v>
@@ -97171,7 +97186,7 @@
         <v>31</v>
       </c>
       <c r="N1349" s="2" t="s">
-        <v>1325</v>
+        <v>1680</v>
       </c>
       <c r="O1349" s="2" t="s">
         <v>33</v>
@@ -97189,7 +97204,7 @@
         <v>33</v>
       </c>
       <c r="T1349" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U1349" s="1" t="s">
         <v>34</v>
@@ -97209,7 +97224,7 @@
         <v>22</v>
       </c>
       <c r="D1350" s="2" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="E1350" s="2" t="s">
         <v>1633</v>
@@ -97239,13 +97254,13 @@
         <v>31</v>
       </c>
       <c r="N1350" s="2" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="O1350" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P1350" s="2" t="s">
-        <v>1205</v>
+        <v>1683</v>
       </c>
       <c r="Q1350" s="2" t="s">
         <v>33</v>
@@ -97277,7 +97292,7 @@
         <v>22</v>
       </c>
       <c r="D1351" s="2" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="E1351" s="2" t="s">
         <v>1633</v>
@@ -97307,7 +97322,7 @@
         <v>31</v>
       </c>
       <c r="N1351" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="O1351" s="2" t="s">
         <v>33</v>
@@ -97345,7 +97360,7 @@
         <v>22</v>
       </c>
       <c r="D1352" s="2" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="E1352" s="2" t="s">
         <v>1633</v>
@@ -97375,7 +97390,7 @@
         <v>31</v>
       </c>
       <c r="N1352" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O1352" s="2" t="s">
         <v>33</v>
@@ -97413,22 +97428,22 @@
         <v>22</v>
       </c>
       <c r="D1353" s="2" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="E1353" s="2" t="s">
         <v>1633</v>
       </c>
       <c r="F1353" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G1353" s="1" t="s">
-        <v>543</v>
+        <v>1687</v>
       </c>
       <c r="H1353" s="1" t="s">
-        <v>544</v>
+        <v>1688</v>
       </c>
       <c r="I1353" s="1" t="s">
-        <v>544</v>
+        <v>1688</v>
       </c>
       <c r="J1353" s="2" t="s">
         <v>29</v>
@@ -97443,7 +97458,7 @@
         <v>31</v>
       </c>
       <c r="N1353" s="2" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="O1353" s="2" t="s">
         <v>33</v>
@@ -97481,60 +97496,128 @@
         <v>22</v>
       </c>
       <c r="D1354" s="2" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="E1354" s="2" t="s">
         <v>1633</v>
       </c>
       <c r="F1354" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G1354" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H1354" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I1354" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J1354" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1354" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1354" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1354" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1354" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1354" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1354" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1354" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1354" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1354" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1354" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1355" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1355" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1355" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E1355" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F1355" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G1354" s="1" t="s">
+      <c r="G1355" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="H1354" s="1" t="s">
+      <c r="H1355" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="I1354" s="1" t="s">
+      <c r="I1355" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="J1354" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1354" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1354" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1354" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1354" s="2" t="s">
+      <c r="J1355" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1355" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1355" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O1354" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1354" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1354" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1354" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1354" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1354" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1354" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1354" s="2" t="s">
+      <c r="O1355" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1355" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1355" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1355" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1355" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1355" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1355" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1355" s="2" t="s">
         <v>33</v>
       </c>
     </row>
